--- a/Fake Folder/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
+++ b/Fake Folder/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/Parts Used.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Scripts/Fake Folder copy/Finance/Recurring/IoT and Feather Report for Digi-Key/CSVs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801DEA07-531F-1B43-B188-C0E0F511B309}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Parts Used" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="273">
   <si>
     <t>Part Id</t>
   </si>
@@ -824,6 +818,12 @@
   </si>
   <si>
     <t>Adafruit AirLift FeatherWing â ESP32 WiFi Co-Processor</t>
+  </si>
+  <si>
+    <t>AdaBox013 - HalloWing II</t>
+  </si>
+  <si>
+    <t>Wireless Lora Gateway HAT with Lora and GPS antennas</t>
   </si>
   <si>
     <t>iot</t>
@@ -838,8 +838,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,14 +902,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -956,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,27 +980,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,24 +1014,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1233,19 +1189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>283</v>
       </c>
@@ -1264,10 +1215,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>435</v>
       </c>
@@ -1275,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>763</v>
       </c>
@@ -1286,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>852</v>
       </c>
@@ -1297,10 +1248,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>909</v>
       </c>
@@ -1308,10 +1259,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>940</v>
       </c>
@@ -1319,10 +1270,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>944</v>
       </c>
@@ -1330,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>945</v>
       </c>
@@ -1341,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1012</v>
       </c>
@@ -1352,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1129</v>
       </c>
@@ -1363,10 +1314,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1130</v>
       </c>
@@ -1374,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1327</v>
       </c>
@@ -1385,10 +1336,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1491</v>
       </c>
@@ -1396,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1534</v>
       </c>
@@ -1407,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1535</v>
       </c>
@@ -1418,10 +1369,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1588</v>
       </c>
@@ -1429,10 +1380,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1628</v>
       </c>
@@ -1440,10 +1391,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1697</v>
       </c>
@@ -1451,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>1946</v>
       </c>
@@ -1462,10 +1413,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1963</v>
       </c>
@@ -1473,10 +1424,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1978</v>
       </c>
@@ -1484,10 +1435,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>1996</v>
       </c>
@@ -1495,10 +1446,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1506,10 +1457,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>2267</v>
       </c>
@@ -1517,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>2268</v>
       </c>
@@ -1528,10 +1479,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>2269</v>
       </c>
@@ -1539,10 +1490,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>2308</v>
       </c>
@@ -1550,10 +1501,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>2468</v>
       </c>
@@ -1561,10 +1512,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>2471</v>
       </c>
@@ -1572,10 +1523,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>2479</v>
       </c>
@@ -1583,10 +1534,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2487</v>
       </c>
@@ -1594,10 +1545,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>2491</v>
       </c>
@@ -1605,10 +1556,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>2505</v>
       </c>
@@ -1616,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>2521</v>
       </c>
@@ -1627,10 +1578,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>2522</v>
       </c>
@@ -1638,10 +1589,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>2523</v>
       </c>
@@ -1649,10 +1600,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2542</v>
       </c>
@@ -1660,10 +1611,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>2598</v>
       </c>
@@ -1671,10 +1622,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>2633</v>
       </c>
@@ -1682,10 +1633,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>2636</v>
       </c>
@@ -1693,10 +1644,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>2637</v>
       </c>
@@ -1704,10 +1655,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>2649</v>
       </c>
@@ -1715,10 +1666,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>2653</v>
       </c>
@@ -1726,10 +1677,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>2661</v>
       </c>
@@ -1737,10 +1688,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>2678</v>
       </c>
@@ -1748,10 +1699,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>2680</v>
       </c>
@@ -1759,10 +1710,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>2687</v>
       </c>
@@ -1770,10 +1721,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>2691</v>
       </c>
@@ -1781,10 +1732,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>2696</v>
       </c>
@@ -1792,10 +1743,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>2702</v>
       </c>
@@ -1803,10 +1754,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2705</v>
       </c>
@@ -1814,10 +1765,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>2721</v>
       </c>
@@ -1825,10 +1776,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>2722</v>
       </c>
@@ -1836,10 +1787,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2723</v>
       </c>
@@ -1847,10 +1798,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>2724</v>
       </c>
@@ -1858,10 +1809,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2725</v>
       </c>
@@ -1869,10 +1820,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2732</v>
       </c>
@@ -1880,10 +1831,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2733</v>
       </c>
@@ -1891,10 +1842,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2737</v>
       </c>
@@ -1902,10 +1853,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2746</v>
       </c>
@@ -1913,10 +1864,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2771</v>
       </c>
@@ -1924,10 +1875,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>2772</v>
       </c>
@@ -1935,10 +1886,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2795</v>
       </c>
@@ -1946,10 +1897,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>2796</v>
       </c>
@@ -1957,10 +1908,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>2798</v>
       </c>
@@ -1968,10 +1919,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2799</v>
       </c>
@@ -1979,10 +1930,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>2815</v>
       </c>
@@ -1990,10 +1941,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>2821</v>
       </c>
@@ -2001,10 +1952,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>2829</v>
       </c>
@@ -2012,10 +1963,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>2830</v>
       </c>
@@ -2023,10 +1974,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>2884</v>
       </c>
@@ -2034,10 +1985,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>2886</v>
       </c>
@@ -2045,10 +1996,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>2890</v>
       </c>
@@ -2056,10 +2007,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>2895</v>
       </c>
@@ -2067,10 +2018,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>2900</v>
       </c>
@@ -2078,10 +2029,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>2922</v>
       </c>
@@ -2089,10 +2040,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>2923</v>
       </c>
@@ -2100,10 +2051,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>2926</v>
       </c>
@@ -2111,10 +2062,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>2927</v>
       </c>
@@ -2122,10 +2073,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>2928</v>
       </c>
@@ -2133,10 +2084,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>2940</v>
       </c>
@@ -2144,10 +2095,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>2945</v>
       </c>
@@ -2155,10 +2106,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>2960</v>
       </c>
@@ -2166,10 +2117,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>2965</v>
       </c>
@@ -2177,10 +2128,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>2971</v>
       </c>
@@ -2188,10 +2139,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>2995</v>
       </c>
@@ -2199,10 +2150,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>2999</v>
       </c>
@@ -2210,10 +2161,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>3010</v>
       </c>
@@ -2221,10 +2172,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>3022</v>
       </c>
@@ -2232,10 +2183,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>3026</v>
       </c>
@@ -2243,10 +2194,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>3027</v>
       </c>
@@ -2254,10 +2205,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>3028</v>
       </c>
@@ -2265,10 +2216,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>3029</v>
       </c>
@@ -2276,10 +2227,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>3031</v>
       </c>
@@ -2287,10 +2238,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>3032</v>
       </c>
@@ -2298,10 +2249,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>3040</v>
       </c>
@@ -2309,10 +2260,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>3044</v>
       </c>
@@ -2320,10 +2271,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>3046</v>
       </c>
@@ -2331,10 +2282,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>3051</v>
       </c>
@@ -2342,10 +2293,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>3056</v>
       </c>
@@ -2353,10 +2304,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>3058</v>
       </c>
@@ -2364,10 +2315,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>3060</v>
       </c>
@@ -2375,10 +2326,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>3061</v>
       </c>
@@ -2386,10 +2337,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>3064</v>
       </c>
@@ -2397,10 +2348,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>3076</v>
       </c>
@@ -2408,10 +2359,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>3077</v>
       </c>
@@ -2419,10 +2370,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>3078</v>
       </c>
@@ -2430,10 +2381,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>3079</v>
       </c>
@@ -2441,10 +2392,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>3088</v>
       </c>
@@ -2452,10 +2403,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>3089</v>
       </c>
@@ -2463,10 +2414,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>3090</v>
       </c>
@@ -2474,10 +2425,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>3106</v>
       </c>
@@ -2485,10 +2436,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>3107</v>
       </c>
@@ -2496,10 +2447,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>3108</v>
       </c>
@@ -2507,10 +2458,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>3109</v>
       </c>
@@ -2518,10 +2469,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>3110</v>
       </c>
@@ -2529,10 +2480,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>3127</v>
       </c>
@@ -2540,10 +2491,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>3128</v>
       </c>
@@ -2551,10 +2502,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>3129</v>
       </c>
@@ -2562,10 +2513,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>3130</v>
       </c>
@@ -2573,10 +2524,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>3131</v>
       </c>
@@ -2584,10 +2535,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>3132</v>
       </c>
@@ -2595,10 +2546,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>3133</v>
       </c>
@@ -2606,10 +2557,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>3134</v>
       </c>
@@ -2617,10 +2568,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>3135</v>
       </c>
@@ -2628,10 +2579,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>3136</v>
       </c>
@@ -2639,10 +2590,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>3137</v>
       </c>
@@ -2650,10 +2601,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>3138</v>
       </c>
@@ -2661,10 +2612,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>3139</v>
       </c>
@@ -2672,10 +2623,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>3140</v>
       </c>
@@ -2683,10 +2634,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>3147</v>
       </c>
@@ -2694,10 +2645,10 @@
         <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>3148</v>
       </c>
@@ -2705,10 +2656,10 @@
         <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>3149</v>
       </c>
@@ -2716,10 +2667,10 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>3150</v>
       </c>
@@ -2727,10 +2678,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>3151</v>
       </c>
@@ -2738,10 +2689,10 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>3152</v>
       </c>
@@ -2749,10 +2700,10 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>3153</v>
       </c>
@@ -2760,10 +2711,10 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>3154</v>
       </c>
@@ -2771,10 +2722,10 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>3155</v>
       </c>
@@ -2782,10 +2733,10 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>3163</v>
       </c>
@@ -2793,10 +2744,10 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>3173</v>
       </c>
@@ -2804,10 +2755,10 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>3176</v>
       </c>
@@ -2815,10 +2766,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>3177</v>
       </c>
@@ -2826,10 +2777,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>3178</v>
       </c>
@@ -2837,10 +2788,10 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>3179</v>
       </c>
@@ -2848,10 +2799,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>3184</v>
       </c>
@@ -2859,10 +2810,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>3191</v>
       </c>
@@ -2870,10 +2821,10 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>3200</v>
       </c>
@@ -2881,10 +2832,10 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>3201</v>
       </c>
@@ -2892,10 +2843,10 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>3207</v>
       </c>
@@ -2903,10 +2854,10 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>3210</v>
       </c>
@@ -2914,10 +2865,10 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>3213</v>
       </c>
@@ -2925,10 +2876,10 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>3229</v>
       </c>
@@ -2936,10 +2887,10 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>3230</v>
       </c>
@@ -2947,10 +2898,10 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>3231</v>
       </c>
@@ -2958,10 +2909,10 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>3232</v>
       </c>
@@ -2969,10 +2920,10 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>3233</v>
       </c>
@@ -2980,10 +2931,10 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>3234</v>
       </c>
@@ -2991,10 +2942,10 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>3238</v>
       </c>
@@ -3002,10 +2953,10 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>3239</v>
       </c>
@@ -3013,10 +2964,10 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>3242</v>
       </c>
@@ -3024,10 +2975,10 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>3243</v>
       </c>
@@ -3035,10 +2986,10 @@
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>3254</v>
       </c>
@@ -3046,10 +2997,10 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>3268</v>
       </c>
@@ -3057,10 +3008,10 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>3269</v>
       </c>
@@ -3068,10 +3019,10 @@
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>3292</v>
       </c>
@@ -3079,10 +3030,10 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>3312</v>
       </c>
@@ -3090,10 +3041,10 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>3315</v>
       </c>
@@ -3101,10 +3052,10 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>3320</v>
       </c>
@@ -3112,10 +3063,10 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>3321</v>
       </c>
@@ -3123,10 +3074,10 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>3324</v>
       </c>
@@ -3134,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>3338</v>
       </c>
@@ -3145,10 +3096,10 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>3339</v>
       </c>
@@ -3156,10 +3107,10 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>3340</v>
       </c>
@@ -3167,10 +3118,10 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>3343</v>
       </c>
@@ -3178,10 +3129,10 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>3344</v>
       </c>
@@ -3189,10 +3140,10 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>3357</v>
       </c>
@@ -3200,10 +3151,10 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>3366</v>
       </c>
@@ -3211,10 +3162,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>3372</v>
       </c>
@@ -3222,10 +3173,10 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>3379</v>
       </c>
@@ -3233,10 +3184,10 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>3381</v>
       </c>
@@ -3244,10 +3195,10 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>3384</v>
       </c>
@@ -3255,10 +3206,10 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>3400</v>
       </c>
@@ -3266,10 +3217,10 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>3403</v>
       </c>
@@ -3277,10 +3228,10 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>3404</v>
       </c>
@@ -3288,10 +3239,10 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>3405</v>
       </c>
@@ -3299,10 +3250,10 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>3406</v>
       </c>
@@ -3310,10 +3261,10 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>3408</v>
       </c>
@@ -3321,10 +3272,10 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>3417</v>
       </c>
@@ -3332,10 +3283,10 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>3418</v>
       </c>
@@ -3343,10 +3294,10 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>3436</v>
       </c>
@@ -3354,10 +3305,10 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>3449</v>
       </c>
@@ -3365,10 +3316,10 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>3450</v>
       </c>
@@ -3376,10 +3327,10 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>3451</v>
       </c>
@@ -3387,10 +3338,10 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>3452</v>
       </c>
@@ -3398,10 +3349,10 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>3453</v>
       </c>
@@ -3409,10 +3360,10 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>3454</v>
       </c>
@@ -3420,10 +3371,10 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>3455</v>
       </c>
@@ -3431,10 +3382,10 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>3457</v>
       </c>
@@ -3442,10 +3393,10 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>3458</v>
       </c>
@@ -3453,10 +3404,10 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>3470</v>
       </c>
@@ -3464,10 +3415,10 @@
         <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>3503</v>
       </c>
@@ -3475,10 +3426,10 @@
         <v>71</v>
       </c>
       <c r="C203" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>3506</v>
       </c>
@@ -3486,10 +3437,10 @@
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>3507</v>
       </c>
@@ -3497,10 +3448,10 @@
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>3534</v>
       </c>
@@ -3508,10 +3459,10 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>3574</v>
       </c>
@@ -3519,10 +3470,10 @@
         <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>3584</v>
       </c>
@@ -3530,10 +3481,10 @@
         <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>3585</v>
       </c>
@@ -3541,10 +3492,10 @@
         <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>3591</v>
       </c>
@@ -3552,10 +3503,10 @@
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>3593</v>
       </c>
@@ -3563,10 +3514,10 @@
         <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>3594</v>
       </c>
@@ -3574,10 +3525,10 @@
         <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>3604</v>
       </c>
@@ -3585,10 +3536,10 @@
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>3605</v>
       </c>
@@ -3596,10 +3547,10 @@
         <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>3606</v>
       </c>
@@ -3607,10 +3558,10 @@
         <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>3608</v>
       </c>
@@ -3618,10 +3569,10 @@
         <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>3609</v>
       </c>
@@ -3629,10 +3580,10 @@
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>3612</v>
       </c>
@@ -3640,10 +3591,10 @@
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>3613</v>
       </c>
@@ -3651,10 +3602,10 @@
         <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>3619</v>
       </c>
@@ -3662,10 +3613,10 @@
         <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>3622</v>
       </c>
@@ -3673,10 +3624,10 @@
         <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>3623</v>
       </c>
@@ -3684,10 +3635,10 @@
         <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>3632</v>
       </c>
@@ -3695,10 +3646,10 @@
         <v>220</v>
       </c>
       <c r="C223" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>3650</v>
       </c>
@@ -3706,10 +3657,10 @@
         <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>3651</v>
       </c>
@@ -3717,10 +3668,10 @@
         <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>3689</v>
       </c>
@@ -3728,10 +3679,10 @@
         <v>223</v>
       </c>
       <c r="C226" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>3707</v>
       </c>
@@ -3739,10 +3690,10 @@
         <v>186</v>
       </c>
       <c r="C227" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>3747</v>
       </c>
@@ -3750,10 +3701,10 @@
         <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>3775</v>
       </c>
@@ -3761,10 +3712,10 @@
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>3785</v>
       </c>
@@ -3772,10 +3723,10 @@
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>3792</v>
       </c>
@@ -3783,10 +3734,10 @@
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>3807</v>
       </c>
@@ -3794,10 +3745,10 @@
         <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>3808</v>
       </c>
@@ -3805,10 +3756,10 @@
         <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>3857</v>
       </c>
@@ -3816,10 +3767,10 @@
         <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>3876</v>
       </c>
@@ -3827,10 +3778,10 @@
         <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>3883</v>
       </c>
@@ -3838,10 +3789,10 @@
         <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>3943</v>
       </c>
@@ -3849,10 +3800,10 @@
         <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>3953</v>
       </c>
@@ -3860,10 +3811,10 @@
         <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>3979</v>
       </c>
@@ -3871,10 +3822,10 @@
         <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>3980</v>
       </c>
@@ -3882,10 +3833,10 @@
         <v>236</v>
       </c>
       <c r="C240" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>3993</v>
       </c>
@@ -3893,10 +3844,10 @@
         <v>237</v>
       </c>
       <c r="C241" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>3994</v>
       </c>
@@ -3904,10 +3855,10 @@
         <v>238</v>
       </c>
       <c r="C242" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>3995</v>
       </c>
@@ -3915,10 +3866,10 @@
         <v>239</v>
       </c>
       <c r="C243" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>3996</v>
       </c>
@@ -3926,10 +3877,10 @@
         <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>3997</v>
       </c>
@@ -3937,10 +3888,10 @@
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>3998</v>
       </c>
@@ -3948,10 +3899,10 @@
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>3999</v>
       </c>
@@ -3959,10 +3910,10 @@
         <v>243</v>
       </c>
       <c r="C247" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>4000</v>
       </c>
@@ -3970,10 +3921,10 @@
         <v>244</v>
       </c>
       <c r="C248" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>4002</v>
       </c>
@@ -3981,10 +3932,10 @@
         <v>245</v>
       </c>
       <c r="C249" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>4003</v>
       </c>
@@ -3992,10 +3943,10 @@
         <v>246</v>
       </c>
       <c r="C250" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>4004</v>
       </c>
@@ -4003,10 +3954,10 @@
         <v>247</v>
       </c>
       <c r="C251" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>4005</v>
       </c>
@@ -4014,10 +3965,10 @@
         <v>248</v>
       </c>
       <c r="C252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>4006</v>
       </c>
@@ -4025,10 +3976,10 @@
         <v>249</v>
       </c>
       <c r="C253" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>4039</v>
       </c>
@@ -4036,10 +3987,10 @@
         <v>250</v>
       </c>
       <c r="C254" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>4061</v>
       </c>
@@ -4047,10 +3998,10 @@
         <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>4062</v>
       </c>
@@ -4058,10 +4009,10 @@
         <v>252</v>
       </c>
       <c r="C256" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>4065</v>
       </c>
@@ -4069,10 +4020,10 @@
         <v>253</v>
       </c>
       <c r="C257" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>4083</v>
       </c>
@@ -4080,10 +4031,10 @@
         <v>254</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>4091</v>
       </c>
@@ -4091,10 +4042,10 @@
         <v>77</v>
       </c>
       <c r="C259" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>4095</v>
       </c>
@@ -4102,10 +4053,10 @@
         <v>255</v>
       </c>
       <c r="C260" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>4116</v>
       </c>
@@ -4113,10 +4064,10 @@
         <v>256</v>
       </c>
       <c r="C261" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>4128</v>
       </c>
@@ -4124,10 +4075,10 @@
         <v>257</v>
       </c>
       <c r="C262" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>4147</v>
       </c>
@@ -4135,10 +4086,10 @@
         <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>4172</v>
       </c>
@@ -4146,10 +4097,10 @@
         <v>259</v>
       </c>
       <c r="C264" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>4176</v>
       </c>
@@ -4157,10 +4108,10 @@
         <v>260</v>
       </c>
       <c r="C265" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>4177</v>
       </c>
@@ -4168,10 +4119,10 @@
         <v>261</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>4178</v>
       </c>
@@ -4179,10 +4130,10 @@
         <v>262</v>
       </c>
       <c r="C267" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>4195</v>
       </c>
@@ -4190,10 +4141,10 @@
         <v>263</v>
       </c>
       <c r="C268" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>4201</v>
       </c>
@@ -4201,10 +4152,10 @@
         <v>264</v>
       </c>
       <c r="C269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>4253</v>
       </c>
@@ -4212,10 +4163,10 @@
         <v>265</v>
       </c>
       <c r="C270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>4254</v>
       </c>
@@ -4223,10 +4174,10 @@
         <v>266</v>
       </c>
       <c r="C271" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>4264</v>
       </c>
@@ -4234,7 +4185,29 @@
         <v>267</v>
       </c>
       <c r="C272" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>4281</v>
+      </c>
+      <c r="B273" t="s">
+        <v>268</v>
+      </c>
+      <c r="C273" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>4284</v>
+      </c>
+      <c r="B274" t="s">
+        <v>269</v>
+      </c>
+      <c r="C274" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
